--- a/Seventh_Match/7.BARC4-DLC0 Stat 19.8.18.xlsx
+++ b/Seventh_Match/7.BARC4-DLC0 Stat 19.8.18.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="1" state="visible" r:id="rId2"/>
@@ -331,8 +331,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1203,6 +1203,11 @@
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -1221,8 +1226,8 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1294,7 +1299,7 @@
         <v>0.864</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0.361161524500907</v>
+        <v>1.16333333333333</v>
       </c>
       <c r="F2" s="8" t="n">
         <v>0.372050816696915</v>
